--- a/data/trans_camb/P37A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37A-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-14,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-7,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>12,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 17,26</t>
+          <t>-38,58; 7,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 21,2</t>
+          <t>-22,98; 17,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 16,22</t>
+          <t>-31,38; 12,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 14,29</t>
+          <t>-5,53; 31,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 11,69</t>
+          <t>-14,46; 26,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 14,52</t>
+          <t>-18,91; 22,89</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-14,54; 15,98</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,91; 17,47</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 14,25</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>-17,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>-3,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>-9,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 25,35</t>
+          <t>-43,43; 10,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 31,5</t>
+          <t>-25,14; 23,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 25,54</t>
+          <t>-34,88; 16,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 22,84</t>
+          <t>-7,77; 57,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 17,38</t>
+          <t>-18,67; 50,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 21,42</t>
+          <t>-25,21; 42,03</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-18,17; 24,53</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-13,71; 27,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-19,39; 21,46</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-19,76</t>
+          <t>-20,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,85</t>
+          <t>-12,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>-18,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,89</t>
+          <t>-27,06</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-6,85</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-18,67</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-11,99</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 2,58</t>
+          <t>-17,35; 14,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,82; -6,91</t>
+          <t>-48,84; -0,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 5,97</t>
+          <t>-23,42; 13,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 2,13</t>
+          <t>-31,17; 6,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 2,18</t>
+          <t>-35,17; 2,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,52; -4,89</t>
+          <t>-45,92; -8,21</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-19,39; 7,48</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-35,43; -2,54</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-26,76; 4,35</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-21,77%</t>
+          <t>-23,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,88%</t>
+          <t>-4,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,37%</t>
+          <t>-18,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>-26,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,71%</t>
+          <t>-38,41%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-8,68%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-23,66%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-15,19%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 3,27</t>
+          <t>-18,99; 19,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,39; -8,13</t>
+          <t>-55,69; -1,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 8,92</t>
+          <t>-27,31; 17,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 2,29</t>
+          <t>-39,81; 10,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 2,61</t>
+          <t>-46,81; 2,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,56; -6,56</t>
+          <t>-59,83; -13,68</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-23,42; 10,49</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-42,14; -2,98</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-32,46; 6,07</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,07</t>
+          <t>-8,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-8,73</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,85</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 14,32</t>
+          <t>-11,43; 20,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 13,01</t>
+          <t>-6,93; 26,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 5,62</t>
+          <t>-18,88; 15,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 2,87</t>
+          <t>-20,59; 4,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 5,82</t>
+          <t>-21,59; 3,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 4,6</t>
+          <t>-20,5; 4,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-13,2; 6,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,73; 7,85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-16,21; 5,16</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,16%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,53%</t>
+          <t>-11,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>-13,68%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-12,39%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>-4,65%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-7,14%</t>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,88%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-8,54%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 21,86</t>
+          <t>-15,77; 37,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 19,21</t>
+          <t>-9,42; 49,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 8,63</t>
+          <t>-26,87; 25,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 4,42</t>
+          <t>-27,47; 7,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 8,61</t>
+          <t>-29,0; 6,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 6,55</t>
+          <t>-27,69; 7,01</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; 11,31</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 12,45</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,22; 8,41</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-8,3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-5,24</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-5,34</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 6,29</t>
+          <t>-19,27; 9,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 11,93</t>
+          <t>-16,01; 12,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 5,05</t>
+          <t>-17,16; 11,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 6,26</t>
+          <t>-19,1; 9,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 1,94</t>
+          <t>-13,99; 13,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 5,3</t>
+          <t>-22,87; 4,83</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-14,85; 3,65</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-11,61; 7,93</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; 5,19</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>-5,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,36%</t>
+          <t>-3,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>-9,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,66%</t>
+          <t>-1,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>-12,75%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-7,57%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-1,69%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-7,71%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 8,45</t>
+          <t>-24,02; 13,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 17,38</t>
+          <t>-20,07; 18,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 8,5</t>
+          <t>-22,14; 17,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 9,49</t>
+          <t>-27,81; 15,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 2,8</t>
+          <t>-19,5; 23,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 8,09</t>
+          <t>-32,13; 8,42</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-20,05; 5,59</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; 12,4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-20,41; 8,07</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>-11,73</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 20,95</t>
+          <t>-6,27; 28,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 21,56</t>
+          <t>-9,3; 22,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 13,42</t>
+          <t>-7,9; 26,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 15,71</t>
+          <t>-13,72; 13,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 12,84</t>
+          <t>-11,39; 14,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 13,69</t>
+          <t>-27,52; 3,95</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 15,72</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 16,47</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-12,33; 12,56</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>-1,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>-13,86%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-2,19%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 30,93</t>
+          <t>-7,2; 48,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 32,56</t>
+          <t>-10,65; 35,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 19,61</t>
+          <t>-9,13; 43,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 22,87</t>
+          <t>-15,14; 17,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 18,13</t>
+          <t>-12,46; 19,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 19,1</t>
+          <t>-30,66; 4,92</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 22,57</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 22,93</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; 16,96</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-10,57</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-7,31</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-4,73</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-5,98</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 10,36</t>
+          <t>-7,75; 14,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 14,1</t>
+          <t>-8,12; 14,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 14,86</t>
+          <t>-16,92; 8,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 14,75</t>
+          <t>-21,67; 8,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 9,23</t>
+          <t>-28,07; 7,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 10,05</t>
+          <t>-36,93; 10,15</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 7,87</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-15,57; 6,55</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-26,91; 4,88</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>-3,58%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>-7,15%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>-12,3%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>-8,51%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-2,25%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-5,32%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-6,73%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 12,19</t>
+          <t>-7,99; 18,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 16,68</t>
+          <t>-8,19; 17,96</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 19,56</t>
+          <t>-17,92; 9,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 20,6</t>
+          <t>-23,7; 11,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 11,16</t>
+          <t>-32,37; 8,61</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 12,38</t>
+          <t>-41,47; 12,58</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-13,88; 9,47</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-16,73; 7,79</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-29,49; 5,64</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-8,75</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-5,03</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,26</t>
+          <t>-8,32; 5,51</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 4,84</t>
+          <t>-10,65; 5,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 2,02</t>
+          <t>-9,03; 5,63</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 1,53</t>
+          <t>-11,48; 1,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 1,73</t>
+          <t>-12,04; 1,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,46</t>
+          <t>-16,25; -1,9</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 2,16</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 0,93</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; 0,04</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>-6,52%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>-7,71%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,95%</t>
+          <t>-12,09%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-3,94%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-4,84%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-6,66%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 5,48</t>
+          <t>-10,01; 7,37</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 6,14</t>
+          <t>-12,89; 6,76</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 2,9</t>
+          <t>-10,77; 7,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 2,18</t>
+          <t>-15,34; 2,46</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 2,28</t>
+          <t>-15,79; 1,99</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 1,94</t>
+          <t>-21,82; -2,82</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; 2,97</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-12,38; 1,25</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-13,21; 0,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
